--- a/HistaffWebApp/ReportTemplates/Attendance/Import/Import_SingDefault_Error.xlsx
+++ b/HistaffWebApp/ReportTemplates/Attendance/Import/Import_SingDefault_Error.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuyNV\Desktop\HiStaff_2017\05.DEPLOYMENT\02. Core Level2\01.SourceCode\HistaffWebApp\ReportTemplates\Attendance\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\TNG\TNG\HistaffWebApp\ReportTemplates\Attendance\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>&amp;=DATA.NOTE</t>
   </si>
@@ -56,12 +56,6 @@
 (dd/MM/yyyy)</t>
   </si>
   <si>
-    <t>Ca mặc định</t>
-  </si>
-  <si>
-    <t>Mã ca mặc định</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -105,12 +99,42 @@
   </si>
   <si>
     <t>&amp;=DATA.ORG_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=DATA.SHIFT_SAT_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=DATA.SHIFT_SAT_ID</t>
+  </si>
+  <si>
+    <t>&amp;=DATA.SHIFT_SUN_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=DATA.SHIFT_SUN_ID</t>
+  </si>
+  <si>
+    <t>Mã ca T2-T6</t>
+  </si>
+  <si>
+    <t>Ca T2-T6</t>
+  </si>
+  <si>
+    <t>Mã ca T7</t>
+  </si>
+  <si>
+    <t>Ca T7</t>
+  </si>
+  <si>
+    <t>Mã ca CN</t>
+  </si>
+  <si>
+    <t>Ca CN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,219 +644,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.86328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="19" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="19.265625" style="13" customWidth="1"/>
     <col min="9" max="9" width="20" style="13" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="13" customWidth="1"/>
-    <col min="13" max="255" width="9.140625" style="4"/>
-    <col min="256" max="256" width="6.5703125" style="4" customWidth="1"/>
-    <col min="257" max="257" width="25" style="4" customWidth="1"/>
-    <col min="258" max="511" width="9.140625" style="4"/>
-    <col min="512" max="512" width="6.5703125" style="4" customWidth="1"/>
-    <col min="513" max="513" width="25" style="4" customWidth="1"/>
-    <col min="514" max="767" width="9.140625" style="4"/>
-    <col min="768" max="768" width="6.5703125" style="4" customWidth="1"/>
-    <col min="769" max="769" width="25" style="4" customWidth="1"/>
-    <col min="770" max="1023" width="9.140625" style="4"/>
-    <col min="1024" max="1024" width="6.5703125" style="4" customWidth="1"/>
-    <col min="1025" max="1025" width="25" style="4" customWidth="1"/>
-    <col min="1026" max="1279" width="9.140625" style="4"/>
-    <col min="1280" max="1280" width="6.5703125" style="4" customWidth="1"/>
-    <col min="1281" max="1281" width="25" style="4" customWidth="1"/>
-    <col min="1282" max="1535" width="9.140625" style="4"/>
-    <col min="1536" max="1536" width="6.5703125" style="4" customWidth="1"/>
-    <col min="1537" max="1537" width="25" style="4" customWidth="1"/>
-    <col min="1538" max="1791" width="9.140625" style="4"/>
-    <col min="1792" max="1792" width="6.5703125" style="4" customWidth="1"/>
-    <col min="1793" max="1793" width="25" style="4" customWidth="1"/>
-    <col min="1794" max="2047" width="9.140625" style="4"/>
-    <col min="2048" max="2048" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2049" max="2049" width="25" style="4" customWidth="1"/>
-    <col min="2050" max="2303" width="9.140625" style="4"/>
-    <col min="2304" max="2304" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2305" max="2305" width="25" style="4" customWidth="1"/>
-    <col min="2306" max="2559" width="9.140625" style="4"/>
-    <col min="2560" max="2560" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2561" max="2561" width="25" style="4" customWidth="1"/>
-    <col min="2562" max="2815" width="9.140625" style="4"/>
-    <col min="2816" max="2816" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2817" max="2817" width="25" style="4" customWidth="1"/>
-    <col min="2818" max="3071" width="9.140625" style="4"/>
-    <col min="3072" max="3072" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3073" max="3073" width="25" style="4" customWidth="1"/>
-    <col min="3074" max="3327" width="9.140625" style="4"/>
-    <col min="3328" max="3328" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3329" max="3329" width="25" style="4" customWidth="1"/>
-    <col min="3330" max="3583" width="9.140625" style="4"/>
-    <col min="3584" max="3584" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3585" max="3585" width="25" style="4" customWidth="1"/>
-    <col min="3586" max="3839" width="9.140625" style="4"/>
-    <col min="3840" max="3840" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3841" max="3841" width="25" style="4" customWidth="1"/>
-    <col min="3842" max="4095" width="9.140625" style="4"/>
-    <col min="4096" max="4096" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4097" max="4097" width="25" style="4" customWidth="1"/>
-    <col min="4098" max="4351" width="9.140625" style="4"/>
-    <col min="4352" max="4352" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4353" max="4353" width="25" style="4" customWidth="1"/>
-    <col min="4354" max="4607" width="9.140625" style="4"/>
-    <col min="4608" max="4608" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4609" max="4609" width="25" style="4" customWidth="1"/>
-    <col min="4610" max="4863" width="9.140625" style="4"/>
-    <col min="4864" max="4864" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4865" max="4865" width="25" style="4" customWidth="1"/>
-    <col min="4866" max="5119" width="9.140625" style="4"/>
-    <col min="5120" max="5120" width="6.5703125" style="4" customWidth="1"/>
-    <col min="5121" max="5121" width="25" style="4" customWidth="1"/>
-    <col min="5122" max="5375" width="9.140625" style="4"/>
-    <col min="5376" max="5376" width="6.5703125" style="4" customWidth="1"/>
-    <col min="5377" max="5377" width="25" style="4" customWidth="1"/>
-    <col min="5378" max="5631" width="9.140625" style="4"/>
-    <col min="5632" max="5632" width="6.5703125" style="4" customWidth="1"/>
-    <col min="5633" max="5633" width="25" style="4" customWidth="1"/>
-    <col min="5634" max="5887" width="9.140625" style="4"/>
-    <col min="5888" max="5888" width="6.5703125" style="4" customWidth="1"/>
-    <col min="5889" max="5889" width="25" style="4" customWidth="1"/>
-    <col min="5890" max="6143" width="9.140625" style="4"/>
-    <col min="6144" max="6144" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6145" max="6145" width="25" style="4" customWidth="1"/>
-    <col min="6146" max="6399" width="9.140625" style="4"/>
-    <col min="6400" max="6400" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6401" max="6401" width="25" style="4" customWidth="1"/>
-    <col min="6402" max="6655" width="9.140625" style="4"/>
-    <col min="6656" max="6656" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6657" max="6657" width="25" style="4" customWidth="1"/>
-    <col min="6658" max="6911" width="9.140625" style="4"/>
-    <col min="6912" max="6912" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6913" max="6913" width="25" style="4" customWidth="1"/>
-    <col min="6914" max="7167" width="9.140625" style="4"/>
-    <col min="7168" max="7168" width="6.5703125" style="4" customWidth="1"/>
-    <col min="7169" max="7169" width="25" style="4" customWidth="1"/>
-    <col min="7170" max="7423" width="9.140625" style="4"/>
-    <col min="7424" max="7424" width="6.5703125" style="4" customWidth="1"/>
-    <col min="7425" max="7425" width="25" style="4" customWidth="1"/>
-    <col min="7426" max="7679" width="9.140625" style="4"/>
-    <col min="7680" max="7680" width="6.5703125" style="4" customWidth="1"/>
-    <col min="7681" max="7681" width="25" style="4" customWidth="1"/>
-    <col min="7682" max="7935" width="9.140625" style="4"/>
-    <col min="7936" max="7936" width="6.5703125" style="4" customWidth="1"/>
-    <col min="7937" max="7937" width="25" style="4" customWidth="1"/>
-    <col min="7938" max="8191" width="9.140625" style="4"/>
-    <col min="8192" max="8192" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8193" max="8193" width="25" style="4" customWidth="1"/>
-    <col min="8194" max="8447" width="9.140625" style="4"/>
-    <col min="8448" max="8448" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8449" max="8449" width="25" style="4" customWidth="1"/>
-    <col min="8450" max="8703" width="9.140625" style="4"/>
-    <col min="8704" max="8704" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8705" max="8705" width="25" style="4" customWidth="1"/>
-    <col min="8706" max="8959" width="9.140625" style="4"/>
-    <col min="8960" max="8960" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8961" max="8961" width="25" style="4" customWidth="1"/>
-    <col min="8962" max="9215" width="9.140625" style="4"/>
-    <col min="9216" max="9216" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9217" max="9217" width="25" style="4" customWidth="1"/>
-    <col min="9218" max="9471" width="9.140625" style="4"/>
-    <col min="9472" max="9472" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9473" max="9473" width="25" style="4" customWidth="1"/>
-    <col min="9474" max="9727" width="9.140625" style="4"/>
-    <col min="9728" max="9728" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9729" max="9729" width="25" style="4" customWidth="1"/>
-    <col min="9730" max="9983" width="9.140625" style="4"/>
-    <col min="9984" max="9984" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9985" max="9985" width="25" style="4" customWidth="1"/>
-    <col min="9986" max="10239" width="9.140625" style="4"/>
-    <col min="10240" max="10240" width="6.5703125" style="4" customWidth="1"/>
-    <col min="10241" max="10241" width="25" style="4" customWidth="1"/>
-    <col min="10242" max="10495" width="9.140625" style="4"/>
-    <col min="10496" max="10496" width="6.5703125" style="4" customWidth="1"/>
-    <col min="10497" max="10497" width="25" style="4" customWidth="1"/>
-    <col min="10498" max="10751" width="9.140625" style="4"/>
-    <col min="10752" max="10752" width="6.5703125" style="4" customWidth="1"/>
-    <col min="10753" max="10753" width="25" style="4" customWidth="1"/>
-    <col min="10754" max="11007" width="9.140625" style="4"/>
-    <col min="11008" max="11008" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11009" max="11009" width="25" style="4" customWidth="1"/>
-    <col min="11010" max="11263" width="9.140625" style="4"/>
-    <col min="11264" max="11264" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11265" max="11265" width="25" style="4" customWidth="1"/>
-    <col min="11266" max="11519" width="9.140625" style="4"/>
-    <col min="11520" max="11520" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11521" max="11521" width="25" style="4" customWidth="1"/>
-    <col min="11522" max="11775" width="9.140625" style="4"/>
-    <col min="11776" max="11776" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11777" max="11777" width="25" style="4" customWidth="1"/>
-    <col min="11778" max="12031" width="9.140625" style="4"/>
-    <col min="12032" max="12032" width="6.5703125" style="4" customWidth="1"/>
-    <col min="12033" max="12033" width="25" style="4" customWidth="1"/>
-    <col min="12034" max="12287" width="9.140625" style="4"/>
-    <col min="12288" max="12288" width="6.5703125" style="4" customWidth="1"/>
-    <col min="12289" max="12289" width="25" style="4" customWidth="1"/>
-    <col min="12290" max="12543" width="9.140625" style="4"/>
-    <col min="12544" max="12544" width="6.5703125" style="4" customWidth="1"/>
-    <col min="12545" max="12545" width="25" style="4" customWidth="1"/>
-    <col min="12546" max="12799" width="9.140625" style="4"/>
-    <col min="12800" max="12800" width="6.5703125" style="4" customWidth="1"/>
-    <col min="12801" max="12801" width="25" style="4" customWidth="1"/>
-    <col min="12802" max="13055" width="9.140625" style="4"/>
-    <col min="13056" max="13056" width="6.5703125" style="4" customWidth="1"/>
-    <col min="13057" max="13057" width="25" style="4" customWidth="1"/>
-    <col min="13058" max="13311" width="9.140625" style="4"/>
-    <col min="13312" max="13312" width="6.5703125" style="4" customWidth="1"/>
-    <col min="13313" max="13313" width="25" style="4" customWidth="1"/>
-    <col min="13314" max="13567" width="9.140625" style="4"/>
-    <col min="13568" max="13568" width="6.5703125" style="4" customWidth="1"/>
-    <col min="13569" max="13569" width="25" style="4" customWidth="1"/>
-    <col min="13570" max="13823" width="9.140625" style="4"/>
-    <col min="13824" max="13824" width="6.5703125" style="4" customWidth="1"/>
-    <col min="13825" max="13825" width="25" style="4" customWidth="1"/>
-    <col min="13826" max="14079" width="9.140625" style="4"/>
-    <col min="14080" max="14080" width="6.5703125" style="4" customWidth="1"/>
-    <col min="14081" max="14081" width="25" style="4" customWidth="1"/>
-    <col min="14082" max="14335" width="9.140625" style="4"/>
-    <col min="14336" max="14336" width="6.5703125" style="4" customWidth="1"/>
-    <col min="14337" max="14337" width="25" style="4" customWidth="1"/>
-    <col min="14338" max="14591" width="9.140625" style="4"/>
-    <col min="14592" max="14592" width="6.5703125" style="4" customWidth="1"/>
-    <col min="14593" max="14593" width="25" style="4" customWidth="1"/>
-    <col min="14594" max="14847" width="9.140625" style="4"/>
-    <col min="14848" max="14848" width="6.5703125" style="4" customWidth="1"/>
-    <col min="14849" max="14849" width="25" style="4" customWidth="1"/>
-    <col min="14850" max="15103" width="9.140625" style="4"/>
-    <col min="15104" max="15104" width="6.5703125" style="4" customWidth="1"/>
-    <col min="15105" max="15105" width="25" style="4" customWidth="1"/>
-    <col min="15106" max="15359" width="9.140625" style="4"/>
-    <col min="15360" max="15360" width="6.5703125" style="4" customWidth="1"/>
-    <col min="15361" max="15361" width="25" style="4" customWidth="1"/>
-    <col min="15362" max="15615" width="9.140625" style="4"/>
-    <col min="15616" max="15616" width="6.5703125" style="4" customWidth="1"/>
-    <col min="15617" max="15617" width="25" style="4" customWidth="1"/>
-    <col min="15618" max="15871" width="9.140625" style="4"/>
-    <col min="15872" max="15872" width="6.5703125" style="4" customWidth="1"/>
-    <col min="15873" max="15873" width="25" style="4" customWidth="1"/>
-    <col min="15874" max="16127" width="9.140625" style="4"/>
-    <col min="16128" max="16128" width="6.5703125" style="4" customWidth="1"/>
-    <col min="16129" max="16129" width="25" style="4" customWidth="1"/>
-    <col min="16130" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="10" width="15.1328125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="15.1328125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15.1328125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="12.3984375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="20.86328125" style="13" customWidth="1"/>
+    <col min="17" max="259" width="9.1328125" style="4"/>
+    <col min="260" max="260" width="6.59765625" style="4" customWidth="1"/>
+    <col min="261" max="261" width="25" style="4" customWidth="1"/>
+    <col min="262" max="515" width="9.1328125" style="4"/>
+    <col min="516" max="516" width="6.59765625" style="4" customWidth="1"/>
+    <col min="517" max="517" width="25" style="4" customWidth="1"/>
+    <col min="518" max="771" width="9.1328125" style="4"/>
+    <col min="772" max="772" width="6.59765625" style="4" customWidth="1"/>
+    <col min="773" max="773" width="25" style="4" customWidth="1"/>
+    <col min="774" max="1027" width="9.1328125" style="4"/>
+    <col min="1028" max="1028" width="6.59765625" style="4" customWidth="1"/>
+    <col min="1029" max="1029" width="25" style="4" customWidth="1"/>
+    <col min="1030" max="1283" width="9.1328125" style="4"/>
+    <col min="1284" max="1284" width="6.59765625" style="4" customWidth="1"/>
+    <col min="1285" max="1285" width="25" style="4" customWidth="1"/>
+    <col min="1286" max="1539" width="9.1328125" style="4"/>
+    <col min="1540" max="1540" width="6.59765625" style="4" customWidth="1"/>
+    <col min="1541" max="1541" width="25" style="4" customWidth="1"/>
+    <col min="1542" max="1795" width="9.1328125" style="4"/>
+    <col min="1796" max="1796" width="6.59765625" style="4" customWidth="1"/>
+    <col min="1797" max="1797" width="25" style="4" customWidth="1"/>
+    <col min="1798" max="2051" width="9.1328125" style="4"/>
+    <col min="2052" max="2052" width="6.59765625" style="4" customWidth="1"/>
+    <col min="2053" max="2053" width="25" style="4" customWidth="1"/>
+    <col min="2054" max="2307" width="9.1328125" style="4"/>
+    <col min="2308" max="2308" width="6.59765625" style="4" customWidth="1"/>
+    <col min="2309" max="2309" width="25" style="4" customWidth="1"/>
+    <col min="2310" max="2563" width="9.1328125" style="4"/>
+    <col min="2564" max="2564" width="6.59765625" style="4" customWidth="1"/>
+    <col min="2565" max="2565" width="25" style="4" customWidth="1"/>
+    <col min="2566" max="2819" width="9.1328125" style="4"/>
+    <col min="2820" max="2820" width="6.59765625" style="4" customWidth="1"/>
+    <col min="2821" max="2821" width="25" style="4" customWidth="1"/>
+    <col min="2822" max="3075" width="9.1328125" style="4"/>
+    <col min="3076" max="3076" width="6.59765625" style="4" customWidth="1"/>
+    <col min="3077" max="3077" width="25" style="4" customWidth="1"/>
+    <col min="3078" max="3331" width="9.1328125" style="4"/>
+    <col min="3332" max="3332" width="6.59765625" style="4" customWidth="1"/>
+    <col min="3333" max="3333" width="25" style="4" customWidth="1"/>
+    <col min="3334" max="3587" width="9.1328125" style="4"/>
+    <col min="3588" max="3588" width="6.59765625" style="4" customWidth="1"/>
+    <col min="3589" max="3589" width="25" style="4" customWidth="1"/>
+    <col min="3590" max="3843" width="9.1328125" style="4"/>
+    <col min="3844" max="3844" width="6.59765625" style="4" customWidth="1"/>
+    <col min="3845" max="3845" width="25" style="4" customWidth="1"/>
+    <col min="3846" max="4099" width="9.1328125" style="4"/>
+    <col min="4100" max="4100" width="6.59765625" style="4" customWidth="1"/>
+    <col min="4101" max="4101" width="25" style="4" customWidth="1"/>
+    <col min="4102" max="4355" width="9.1328125" style="4"/>
+    <col min="4356" max="4356" width="6.59765625" style="4" customWidth="1"/>
+    <col min="4357" max="4357" width="25" style="4" customWidth="1"/>
+    <col min="4358" max="4611" width="9.1328125" style="4"/>
+    <col min="4612" max="4612" width="6.59765625" style="4" customWidth="1"/>
+    <col min="4613" max="4613" width="25" style="4" customWidth="1"/>
+    <col min="4614" max="4867" width="9.1328125" style="4"/>
+    <col min="4868" max="4868" width="6.59765625" style="4" customWidth="1"/>
+    <col min="4869" max="4869" width="25" style="4" customWidth="1"/>
+    <col min="4870" max="5123" width="9.1328125" style="4"/>
+    <col min="5124" max="5124" width="6.59765625" style="4" customWidth="1"/>
+    <col min="5125" max="5125" width="25" style="4" customWidth="1"/>
+    <col min="5126" max="5379" width="9.1328125" style="4"/>
+    <col min="5380" max="5380" width="6.59765625" style="4" customWidth="1"/>
+    <col min="5381" max="5381" width="25" style="4" customWidth="1"/>
+    <col min="5382" max="5635" width="9.1328125" style="4"/>
+    <col min="5636" max="5636" width="6.59765625" style="4" customWidth="1"/>
+    <col min="5637" max="5637" width="25" style="4" customWidth="1"/>
+    <col min="5638" max="5891" width="9.1328125" style="4"/>
+    <col min="5892" max="5892" width="6.59765625" style="4" customWidth="1"/>
+    <col min="5893" max="5893" width="25" style="4" customWidth="1"/>
+    <col min="5894" max="6147" width="9.1328125" style="4"/>
+    <col min="6148" max="6148" width="6.59765625" style="4" customWidth="1"/>
+    <col min="6149" max="6149" width="25" style="4" customWidth="1"/>
+    <col min="6150" max="6403" width="9.1328125" style="4"/>
+    <col min="6404" max="6404" width="6.59765625" style="4" customWidth="1"/>
+    <col min="6405" max="6405" width="25" style="4" customWidth="1"/>
+    <col min="6406" max="6659" width="9.1328125" style="4"/>
+    <col min="6660" max="6660" width="6.59765625" style="4" customWidth="1"/>
+    <col min="6661" max="6661" width="25" style="4" customWidth="1"/>
+    <col min="6662" max="6915" width="9.1328125" style="4"/>
+    <col min="6916" max="6916" width="6.59765625" style="4" customWidth="1"/>
+    <col min="6917" max="6917" width="25" style="4" customWidth="1"/>
+    <col min="6918" max="7171" width="9.1328125" style="4"/>
+    <col min="7172" max="7172" width="6.59765625" style="4" customWidth="1"/>
+    <col min="7173" max="7173" width="25" style="4" customWidth="1"/>
+    <col min="7174" max="7427" width="9.1328125" style="4"/>
+    <col min="7428" max="7428" width="6.59765625" style="4" customWidth="1"/>
+    <col min="7429" max="7429" width="25" style="4" customWidth="1"/>
+    <col min="7430" max="7683" width="9.1328125" style="4"/>
+    <col min="7684" max="7684" width="6.59765625" style="4" customWidth="1"/>
+    <col min="7685" max="7685" width="25" style="4" customWidth="1"/>
+    <col min="7686" max="7939" width="9.1328125" style="4"/>
+    <col min="7940" max="7940" width="6.59765625" style="4" customWidth="1"/>
+    <col min="7941" max="7941" width="25" style="4" customWidth="1"/>
+    <col min="7942" max="8195" width="9.1328125" style="4"/>
+    <col min="8196" max="8196" width="6.59765625" style="4" customWidth="1"/>
+    <col min="8197" max="8197" width="25" style="4" customWidth="1"/>
+    <col min="8198" max="8451" width="9.1328125" style="4"/>
+    <col min="8452" max="8452" width="6.59765625" style="4" customWidth="1"/>
+    <col min="8453" max="8453" width="25" style="4" customWidth="1"/>
+    <col min="8454" max="8707" width="9.1328125" style="4"/>
+    <col min="8708" max="8708" width="6.59765625" style="4" customWidth="1"/>
+    <col min="8709" max="8709" width="25" style="4" customWidth="1"/>
+    <col min="8710" max="8963" width="9.1328125" style="4"/>
+    <col min="8964" max="8964" width="6.59765625" style="4" customWidth="1"/>
+    <col min="8965" max="8965" width="25" style="4" customWidth="1"/>
+    <col min="8966" max="9219" width="9.1328125" style="4"/>
+    <col min="9220" max="9220" width="6.59765625" style="4" customWidth="1"/>
+    <col min="9221" max="9221" width="25" style="4" customWidth="1"/>
+    <col min="9222" max="9475" width="9.1328125" style="4"/>
+    <col min="9476" max="9476" width="6.59765625" style="4" customWidth="1"/>
+    <col min="9477" max="9477" width="25" style="4" customWidth="1"/>
+    <col min="9478" max="9731" width="9.1328125" style="4"/>
+    <col min="9732" max="9732" width="6.59765625" style="4" customWidth="1"/>
+    <col min="9733" max="9733" width="25" style="4" customWidth="1"/>
+    <col min="9734" max="9987" width="9.1328125" style="4"/>
+    <col min="9988" max="9988" width="6.59765625" style="4" customWidth="1"/>
+    <col min="9989" max="9989" width="25" style="4" customWidth="1"/>
+    <col min="9990" max="10243" width="9.1328125" style="4"/>
+    <col min="10244" max="10244" width="6.59765625" style="4" customWidth="1"/>
+    <col min="10245" max="10245" width="25" style="4" customWidth="1"/>
+    <col min="10246" max="10499" width="9.1328125" style="4"/>
+    <col min="10500" max="10500" width="6.59765625" style="4" customWidth="1"/>
+    <col min="10501" max="10501" width="25" style="4" customWidth="1"/>
+    <col min="10502" max="10755" width="9.1328125" style="4"/>
+    <col min="10756" max="10756" width="6.59765625" style="4" customWidth="1"/>
+    <col min="10757" max="10757" width="25" style="4" customWidth="1"/>
+    <col min="10758" max="11011" width="9.1328125" style="4"/>
+    <col min="11012" max="11012" width="6.59765625" style="4" customWidth="1"/>
+    <col min="11013" max="11013" width="25" style="4" customWidth="1"/>
+    <col min="11014" max="11267" width="9.1328125" style="4"/>
+    <col min="11268" max="11268" width="6.59765625" style="4" customWidth="1"/>
+    <col min="11269" max="11269" width="25" style="4" customWidth="1"/>
+    <col min="11270" max="11523" width="9.1328125" style="4"/>
+    <col min="11524" max="11524" width="6.59765625" style="4" customWidth="1"/>
+    <col min="11525" max="11525" width="25" style="4" customWidth="1"/>
+    <col min="11526" max="11779" width="9.1328125" style="4"/>
+    <col min="11780" max="11780" width="6.59765625" style="4" customWidth="1"/>
+    <col min="11781" max="11781" width="25" style="4" customWidth="1"/>
+    <col min="11782" max="12035" width="9.1328125" style="4"/>
+    <col min="12036" max="12036" width="6.59765625" style="4" customWidth="1"/>
+    <col min="12037" max="12037" width="25" style="4" customWidth="1"/>
+    <col min="12038" max="12291" width="9.1328125" style="4"/>
+    <col min="12292" max="12292" width="6.59765625" style="4" customWidth="1"/>
+    <col min="12293" max="12293" width="25" style="4" customWidth="1"/>
+    <col min="12294" max="12547" width="9.1328125" style="4"/>
+    <col min="12548" max="12548" width="6.59765625" style="4" customWidth="1"/>
+    <col min="12549" max="12549" width="25" style="4" customWidth="1"/>
+    <col min="12550" max="12803" width="9.1328125" style="4"/>
+    <col min="12804" max="12804" width="6.59765625" style="4" customWidth="1"/>
+    <col min="12805" max="12805" width="25" style="4" customWidth="1"/>
+    <col min="12806" max="13059" width="9.1328125" style="4"/>
+    <col min="13060" max="13060" width="6.59765625" style="4" customWidth="1"/>
+    <col min="13061" max="13061" width="25" style="4" customWidth="1"/>
+    <col min="13062" max="13315" width="9.1328125" style="4"/>
+    <col min="13316" max="13316" width="6.59765625" style="4" customWidth="1"/>
+    <col min="13317" max="13317" width="25" style="4" customWidth="1"/>
+    <col min="13318" max="13571" width="9.1328125" style="4"/>
+    <col min="13572" max="13572" width="6.59765625" style="4" customWidth="1"/>
+    <col min="13573" max="13573" width="25" style="4" customWidth="1"/>
+    <col min="13574" max="13827" width="9.1328125" style="4"/>
+    <col min="13828" max="13828" width="6.59765625" style="4" customWidth="1"/>
+    <col min="13829" max="13829" width="25" style="4" customWidth="1"/>
+    <col min="13830" max="14083" width="9.1328125" style="4"/>
+    <col min="14084" max="14084" width="6.59765625" style="4" customWidth="1"/>
+    <col min="14085" max="14085" width="25" style="4" customWidth="1"/>
+    <col min="14086" max="14339" width="9.1328125" style="4"/>
+    <col min="14340" max="14340" width="6.59765625" style="4" customWidth="1"/>
+    <col min="14341" max="14341" width="25" style="4" customWidth="1"/>
+    <col min="14342" max="14595" width="9.1328125" style="4"/>
+    <col min="14596" max="14596" width="6.59765625" style="4" customWidth="1"/>
+    <col min="14597" max="14597" width="25" style="4" customWidth="1"/>
+    <col min="14598" max="14851" width="9.1328125" style="4"/>
+    <col min="14852" max="14852" width="6.59765625" style="4" customWidth="1"/>
+    <col min="14853" max="14853" width="25" style="4" customWidth="1"/>
+    <col min="14854" max="15107" width="9.1328125" style="4"/>
+    <col min="15108" max="15108" width="6.59765625" style="4" customWidth="1"/>
+    <col min="15109" max="15109" width="25" style="4" customWidth="1"/>
+    <col min="15110" max="15363" width="9.1328125" style="4"/>
+    <col min="15364" max="15364" width="6.59765625" style="4" customWidth="1"/>
+    <col min="15365" max="15365" width="25" style="4" customWidth="1"/>
+    <col min="15366" max="15619" width="9.1328125" style="4"/>
+    <col min="15620" max="15620" width="6.59765625" style="4" customWidth="1"/>
+    <col min="15621" max="15621" width="25" style="4" customWidth="1"/>
+    <col min="15622" max="15875" width="9.1328125" style="4"/>
+    <col min="15876" max="15876" width="6.59765625" style="4" customWidth="1"/>
+    <col min="15877" max="15877" width="25" style="4" customWidth="1"/>
+    <col min="15878" max="16131" width="9.1328125" style="4"/>
+    <col min="16132" max="16132" width="6.59765625" style="4" customWidth="1"/>
+    <col min="16133" max="16133" width="25" style="4" customWidth="1"/>
+    <col min="16134" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -843,8 +871,12 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -855,10 +887,14 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -873,10 +909,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
@@ -885,50 +921,74 @@
         <v>6</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:16" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="J4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
     </row>
